--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H2">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>2.361353224377778</v>
+        <v>8.701028583597335</v>
       </c>
       <c r="R2">
-        <v>21.2521790194</v>
+        <v>78.309257252376</v>
       </c>
       <c r="S2">
-        <v>0.01965454654237987</v>
+        <v>0.07355696367441743</v>
       </c>
       <c r="T2">
-        <v>0.01965454654237988</v>
+        <v>0.07355696367441741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H3">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>5.892282869204443</v>
+        <v>20.31529967003578</v>
       </c>
       <c r="R3">
-        <v>53.03054582284</v>
+        <v>182.837697030322</v>
       </c>
       <c r="S3">
-        <v>0.04904397474213652</v>
+        <v>0.1717419665395367</v>
       </c>
       <c r="T3">
-        <v>0.04904397474213653</v>
+        <v>0.1717419665395367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H4">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>1.281413377346667</v>
+        <v>6.464889818840333</v>
       </c>
       <c r="R4">
-        <v>11.53272039612</v>
+        <v>58.18400836956299</v>
       </c>
       <c r="S4">
-        <v>0.01066574818416872</v>
+        <v>0.05465304026928552</v>
       </c>
       <c r="T4">
-        <v>0.01066574818416872</v>
+        <v>0.05465304026928551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H5">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>3.678096151093333</v>
+        <v>4.098626771577889</v>
       </c>
       <c r="R5">
-        <v>33.10286535984</v>
+        <v>36.887640944201</v>
       </c>
       <c r="S5">
-        <v>0.03061435758221269</v>
+        <v>0.03464906909055403</v>
       </c>
       <c r="T5">
-        <v>0.03061435758221269</v>
+        <v>0.03464906909055403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H6">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>0.8528149516555553</v>
+        <v>3.055475352519444</v>
       </c>
       <c r="R6">
-        <v>7.675334564899998</v>
+        <v>27.499278172675</v>
       </c>
       <c r="S6">
-        <v>0.007098341318151714</v>
+        <v>0.0258304506592518</v>
       </c>
       <c r="T6">
-        <v>0.007098341318151715</v>
+        <v>0.0258304506592518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H7">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>1.302367771577778</v>
+        <v>3.333434725735889</v>
       </c>
       <c r="R7">
-        <v>11.7213099442</v>
+        <v>30.000912531623</v>
       </c>
       <c r="S7">
-        <v>0.01084016051368849</v>
+        <v>0.02818027026071699</v>
       </c>
       <c r="T7">
-        <v>0.0108401605136885</v>
+        <v>0.02818027026071698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J8">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>3.853488758194445</v>
+        <v>4.118357944333335</v>
       </c>
       <c r="R8">
-        <v>34.68139882375</v>
+        <v>37.065221499</v>
       </c>
       <c r="S8">
-        <v>0.03207422479897205</v>
+        <v>0.03481587295100359</v>
       </c>
       <c r="T8">
-        <v>0.03207422479897206</v>
+        <v>0.03481587295100358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J9">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
         <v>9.615607509361112</v>
@@ -1013,10 +1013,10 @@
         <v>86.54046758425001</v>
       </c>
       <c r="S9">
-        <v>0.0800347882624781</v>
+        <v>0.08128865288488782</v>
       </c>
       <c r="T9">
-        <v>0.08003478826247812</v>
+        <v>0.0812886528848878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J10">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>2.091136553916667</v>
+        <v>3.059952060708333</v>
       </c>
       <c r="R10">
-        <v>18.82022898525</v>
+        <v>27.539568546375</v>
       </c>
       <c r="S10">
-        <v>0.01740541834280513</v>
+        <v>0.02586829596207633</v>
       </c>
       <c r="T10">
-        <v>0.01740541834280512</v>
+        <v>0.02586829596207632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J11">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>6.002279550333334</v>
+        <v>1.939955944680556</v>
       </c>
       <c r="R11">
-        <v>54.020515953</v>
+        <v>17.459603502125</v>
       </c>
       <c r="S11">
-        <v>0.04995952387152388</v>
+        <v>0.01640004599247522</v>
       </c>
       <c r="T11">
-        <v>0.04995952387152388</v>
+        <v>0.01640004599247522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J12">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>1.391707430763889</v>
+        <v>1.446213062152778</v>
       </c>
       <c r="R12">
-        <v>12.525366876875</v>
+        <v>13.015917559375</v>
       </c>
       <c r="S12">
-        <v>0.01158377246950526</v>
+        <v>0.01222603059582856</v>
       </c>
       <c r="T12">
-        <v>0.01158377246950526</v>
+        <v>0.01222603059582856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J13">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>2.125331998194445</v>
+        <v>1.577776380430556</v>
       </c>
       <c r="R13">
-        <v>19.12798798375</v>
+        <v>14.199987423875</v>
       </c>
       <c r="S13">
-        <v>0.01769004155976244</v>
+        <v>0.01333824372447954</v>
       </c>
       <c r="T13">
-        <v>0.01769004155976244</v>
+        <v>0.01333824372447953</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H14">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>2.248220645307778</v>
+        <v>3.019906484002667</v>
       </c>
       <c r="R14">
-        <v>20.23398580777</v>
+        <v>27.179158356024</v>
       </c>
       <c r="S14">
-        <v>0.01871289600156479</v>
+        <v>0.02552975770734485</v>
       </c>
       <c r="T14">
-        <v>0.01871289600156479</v>
+        <v>0.02552975770734484</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H15">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
-        <v>5.609983232402445</v>
+        <v>7.050925601330889</v>
       </c>
       <c r="R15">
-        <v>50.489849091622</v>
+        <v>63.458330411978</v>
       </c>
       <c r="S15">
-        <v>0.0466942748780326</v>
+        <v>0.05960728359240589</v>
       </c>
       <c r="T15">
-        <v>0.04669427487803261</v>
+        <v>0.05960728359240588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H16">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>1.220020783160667</v>
+        <v>2.243799396209667</v>
       </c>
       <c r="R16">
-        <v>10.980187048446</v>
+        <v>20.194194565887</v>
       </c>
       <c r="S16">
-        <v>0.01015475152880636</v>
+        <v>0.0189686850346419</v>
       </c>
       <c r="T16">
-        <v>0.01015475152880636</v>
+        <v>0.0189686850346419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H17">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>3.501878336941334</v>
+        <v>1.422529468105444</v>
       </c>
       <c r="R17">
-        <v>31.516905032472</v>
+        <v>12.802765212949</v>
       </c>
       <c r="S17">
-        <v>0.02914762181642756</v>
+        <v>0.01202581366167167</v>
       </c>
       <c r="T17">
-        <v>0.02914762181642756</v>
+        <v>0.01202581366167167</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H18">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>0.8119565345605555</v>
+        <v>1.060478050397222</v>
       </c>
       <c r="R18">
-        <v>7.307608811044999</v>
+        <v>9.544302453575</v>
       </c>
       <c r="S18">
-        <v>0.006758259346445321</v>
+        <v>0.008965094721977691</v>
       </c>
       <c r="T18">
-        <v>0.006758259346445321</v>
+        <v>0.008965094721977689</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H19">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>1.239971251067778</v>
+        <v>1.156950703647444</v>
       </c>
       <c r="R19">
-        <v>11.15974125961</v>
+        <v>10.412556332827</v>
       </c>
       <c r="S19">
-        <v>0.01032080775282846</v>
+        <v>0.009780657546823328</v>
       </c>
       <c r="T19">
-        <v>0.01032080775282846</v>
+        <v>0.009780657546823324</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H20">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N20">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q20">
-        <v>5.832729255982222</v>
+        <v>0.9736666225200001</v>
       </c>
       <c r="R20">
-        <v>52.49456330384</v>
+        <v>8.762999602680001</v>
       </c>
       <c r="S20">
-        <v>0.04854828470696549</v>
+        <v>0.008231206195404309</v>
       </c>
       <c r="T20">
-        <v>0.0485482847069655</v>
+        <v>0.008231206195404307</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H21">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>81.613078</v>
       </c>
       <c r="O21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q21">
-        <v>14.55440478829155</v>
+        <v>2.27333228769</v>
       </c>
       <c r="R21">
-        <v>130.989643094624</v>
+        <v>20.45999058921</v>
       </c>
       <c r="S21">
-        <v>0.121142497172777</v>
+        <v>0.01921835089942421</v>
       </c>
       <c r="T21">
-        <v>0.121142497172777</v>
+        <v>0.01921835089942421</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H22">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N22">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O22">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P22">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q22">
-        <v>3.165192406581333</v>
+        <v>0.7234371631349999</v>
       </c>
       <c r="R22">
-        <v>28.486731659232</v>
+        <v>6.510934468215</v>
       </c>
       <c r="S22">
-        <v>0.0263452417150055</v>
+        <v>0.006115810403124106</v>
       </c>
       <c r="T22">
-        <v>0.0263452417150055</v>
+        <v>0.006115810403124105</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H23">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N23">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q23">
-        <v>9.085188444202666</v>
+        <v>0.458646474645</v>
       </c>
       <c r="R23">
-        <v>81.766695997824</v>
+        <v>4.127818271805</v>
       </c>
       <c r="S23">
-        <v>0.07561988493692022</v>
+        <v>0.003877316543754403</v>
       </c>
       <c r="T23">
-        <v>0.07561988493692023</v>
+        <v>0.003877316543754402</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H24">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N24">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O24">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P24">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q24">
-        <v>2.106520391404444</v>
+        <v>0.341915250375</v>
       </c>
       <c r="R24">
-        <v>18.95868352264</v>
+        <v>3.077237253375</v>
       </c>
       <c r="S24">
-        <v>0.01753346456087299</v>
+        <v>0.00289049132639042</v>
       </c>
       <c r="T24">
-        <v>0.01753346456087299</v>
+        <v>0.002890491326390419</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H25">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N25">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q25">
-        <v>3.216951417902222</v>
+        <v>0.373019591835</v>
       </c>
       <c r="R25">
-        <v>28.95256276112</v>
+        <v>3.357176326515</v>
       </c>
       <c r="S25">
-        <v>0.02677605396557934</v>
+        <v>0.003153441952619023</v>
       </c>
       <c r="T25">
-        <v>0.02677605396557935</v>
+        <v>0.003153441952619022</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H26">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I26">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J26">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N26">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q26">
-        <v>2.135673153296667</v>
+        <v>1.533829328728</v>
       </c>
       <c r="R26">
-        <v>19.22105837967</v>
+        <v>13.804463958552</v>
       </c>
       <c r="S26">
-        <v>0.01777611538902284</v>
+        <v>0.01296672308704863</v>
       </c>
       <c r="T26">
-        <v>0.01777611538902285</v>
+        <v>0.01296672308704862</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H27">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I27">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J27">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>81.613078</v>
       </c>
       <c r="O27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q27">
-        <v>5.329143562884667</v>
+        <v>3.581209066999333</v>
       </c>
       <c r="R27">
-        <v>47.962292065962</v>
+        <v>32.230881602994</v>
       </c>
       <c r="S27">
-        <v>0.04435672694217128</v>
+        <v>0.0302749109166649</v>
       </c>
       <c r="T27">
-        <v>0.04435672694217129</v>
+        <v>0.0302749109166649</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H28">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I28">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J28">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N28">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O28">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P28">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q28">
-        <v>1.158945692674</v>
+        <v>1.139639700739</v>
       </c>
       <c r="R28">
-        <v>10.430511234066</v>
+        <v>10.256757306651</v>
       </c>
       <c r="S28">
-        <v>0.009646397591683483</v>
+        <v>0.009634313376146239</v>
       </c>
       <c r="T28">
-        <v>0.009646397591683483</v>
+        <v>0.009634313376146238</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H29">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I29">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J29">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N29">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q29">
-        <v>3.326571867368</v>
+        <v>0.7225115846196666</v>
       </c>
       <c r="R29">
-        <v>29.939146806312</v>
+        <v>6.502604261577</v>
       </c>
       <c r="S29">
-        <v>0.02768847155892329</v>
+        <v>0.006107985725320089</v>
       </c>
       <c r="T29">
-        <v>0.02768847155892329</v>
+        <v>0.006107985725320089</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H30">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I30">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J30">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N30">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O30">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P30">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q30">
-        <v>0.7713094246883333</v>
+        <v>0.5386234126083332</v>
       </c>
       <c r="R30">
-        <v>6.941784822195</v>
+        <v>4.847610713474999</v>
       </c>
       <c r="S30">
-        <v>0.006419936174566904</v>
+        <v>0.00455342749592965</v>
       </c>
       <c r="T30">
-        <v>0.006419936174566905</v>
+        <v>0.004553427495929649</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H31">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I31">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J31">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N31">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q31">
-        <v>1.177897426256667</v>
+        <v>0.5876224745856666</v>
       </c>
       <c r="R31">
-        <v>10.60107683631</v>
+        <v>5.288602271270999</v>
       </c>
       <c r="S31">
-        <v>0.009804140925426979</v>
+        <v>0.004967656938726989</v>
       </c>
       <c r="T31">
-        <v>0.009804140925426981</v>
+        <v>0.004967656938726987</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H32">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N32">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O32">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P32">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q32">
-        <v>2.028558612546667</v>
+        <v>4.043240027557334</v>
       </c>
       <c r="R32">
-        <v>18.25702751292</v>
+        <v>36.389160248016</v>
       </c>
       <c r="S32">
-        <v>0.01688455553901723</v>
+        <v>0.03418083930842869</v>
       </c>
       <c r="T32">
-        <v>0.01688455553901723</v>
+        <v>0.03418083930842868</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H33">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>81.613078</v>
       </c>
       <c r="O33">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P33">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q33">
-        <v>5.061860732434667</v>
+        <v>9.440221004739112</v>
       </c>
       <c r="R33">
-        <v>45.556746591912</v>
+        <v>84.96198904265201</v>
       </c>
       <c r="S33">
-        <v>0.04213201833999135</v>
+        <v>0.07980596625473657</v>
       </c>
       <c r="T33">
-        <v>0.04213201833999135</v>
+        <v>0.07980596625473656</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H34">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N34">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O34">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P34">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q34">
-        <v>1.100818850824</v>
+        <v>3.004139227695333</v>
       </c>
       <c r="R34">
-        <v>9.907369657416002</v>
+        <v>27.037253049258</v>
       </c>
       <c r="S34">
-        <v>0.009162583181070086</v>
+        <v>0.02539646409862942</v>
       </c>
       <c r="T34">
-        <v>0.009162583181070084</v>
+        <v>0.02539646409862941</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H35">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N35">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O35">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P35">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q35">
-        <v>3.159727883168</v>
+        <v>1.904571587329556</v>
       </c>
       <c r="R35">
-        <v>28.437550948512</v>
+        <v>17.141144285966</v>
       </c>
       <c r="S35">
-        <v>0.02629975816402699</v>
+        <v>0.01610091286547726</v>
       </c>
       <c r="T35">
-        <v>0.02629975816402699</v>
+        <v>0.01610091286547725</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H36">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N36">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O36">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P36">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q36">
-        <v>0.7326244533133333</v>
+        <v>1.419834463227778</v>
       </c>
       <c r="R36">
-        <v>6.59362007982</v>
+        <v>12.77851016905</v>
       </c>
       <c r="S36">
-        <v>0.006097944715376836</v>
+        <v>0.01200303056493957</v>
       </c>
       <c r="T36">
-        <v>0.006097944715376836</v>
+        <v>0.01200303056493956</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H37">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N37">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O37">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P37">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q37">
-        <v>1.118820061506667</v>
+        <v>1.548998096357556</v>
       </c>
       <c r="R37">
-        <v>10.06938055356</v>
+        <v>13.940982867218</v>
       </c>
       <c r="S37">
-        <v>0.00931241490871214</v>
+        <v>0.01309495717785673</v>
       </c>
       <c r="T37">
-        <v>0.00931241490871214</v>
+        <v>0.01309495717785672</v>
       </c>
     </row>
   </sheetData>
